--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3682.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3682.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9768730947461509</v>
+        <v>3.924350738525391</v>
       </c>
       <c r="B1">
-        <v>1.42214362177408</v>
+        <v>4.765216827392578</v>
       </c>
       <c r="C1">
-        <v>2.810042554124202</v>
+        <v>3.463376522064209</v>
       </c>
       <c r="D1">
-        <v>7.022294870774737</v>
+        <v>2.608125686645508</v>
       </c>
       <c r="E1">
-        <v>1.825219341749582</v>
+        <v>1.927480936050415</v>
       </c>
     </row>
   </sheetData>
